--- a/biology/Microbiologie/Geodermatophilales/Geodermatophilales.xlsx
+++ b/biology/Microbiologie/Geodermatophilales/Geodermatophilales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Geodermatophilales forment un ordre de bactéries gram positives de la classe des Actinomycetes. Il comprend des bactéries capables de vivre dans des sols très arides.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les bactéries de cet ordre sont des bactéries gram positives, aérobies et qui peuvent être mobiles[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bactéries de cet ordre sont des bactéries gram positives, aérobies et qui peuvent être mobiles.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet ordre comprend de nombreuses souches bactériennes dont certaines Geodermatophilus capables de vivre dans des sols d'environnements arides ou hyper-arides[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet ordre comprend de nombreuses souches bactériennes dont certaines Geodermatophilus capables de vivre dans des sols d'environnements arides ou hyper-arides.
 </t>
         </is>
       </c>
@@ -573,15 +589,14 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Geodermatophilales Sen et al. 2014[3].
-Le genre type est : Geodermatophilus Luedemann 1968[3].
-Geodermatophilales a pour synonyme[3] :
-Antricoccales Salam et al. 2020
-Étymologie
-L'étymologie de cet ordre est la suivante : Ge.o.der.ma.to.phil.a’les. N.L. masc. n. Geodermatophilus, type genus of the order; L. fem. pl. n. suff. -ales, ending to denote an order; N.L. fem. pl. n. Geodermatophilales, the Geodermatophilus order[3].
-</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Geodermatophilales Sen et al. 2014.
+Le genre type est : Geodermatophilus Luedemann 1968.
+Geodermatophilales a pour synonyme :
+Antricoccales Salam et al. 2020</t>
         </is>
       </c>
     </row>
@@ -606,12 +621,51 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie de cet ordre est la suivante : Ge.o.der.ma.to.phil.a’les. N.L. masc. n. Geodermatophilus, type genus of the order; L. fem. pl. n. suff. -ales, ending to denote an order; N.L. fem. pl. n. Geodermatophilales, the Geodermatophilus order.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Geodermatophilales</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Geodermatophilales</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Initialement, l'ordre Geodermatophilales n'a compté qu'une seule famille[4], désormais, selon la base taxonomique LPSN  (29 octobre 2023)[3], il compte actuellement les deux familles suivantes :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Initialement, l'ordre Geodermatophilales n'a compté qu'une seule famille, désormais, selon la base taxonomique LPSN  (29 octobre 2023), il compte actuellement les deux familles suivantes :
 Antricoccaceae Nouioui et al. 2018
 Geodermatophilaceae Normand 2006</t>
         </is>
